--- a/biology/Zoologie/Cynosphenodon/Cynosphenodon.xlsx
+++ b/biology/Zoologie/Cynosphenodon/Cynosphenodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cynosphenodon huizachalensis
-Cynosphenodon est un genre éteint de « reptiles » de la famille des Sphenodontidae[1].
+Cynosphenodon est un genre éteint de « reptiles » de la famille des Sphenodontidae.
 La seule espèce de ce genre, Cynosphenodon huizachalensis, a été découverte en 1996 dans la formation géologique de La Boca près de Tamaulipas au Mexique datant du Jurassique inférieur (étage Pliensbachien) soit il y a environ entre 191 et 183 Ma (millions d'années). 
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette datation a été révisée après une première attribution au Jurassique moyen[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette datation a été révisée après une première attribution au Jurassique moyen,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mode de croissance des dents de Cynosphenodon, qui rappelle celui de la seule espèce actuelle de Sphenodontidae (Sphenodon punctatus ou tuatara), a conduit le paléontologue mexicain Víctor Hugo Reynoso (d) à rattacher Cynosphenodon à la famille des Sphenodontidae[1],[2]. Il est considéré comme carnivore à omnivore[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode de croissance des dents de Cynosphenodon, qui rappelle celui de la seule espèce actuelle de Sphenodontidae (Sphenodon punctatus ou tuatara), a conduit le paléontologue mexicain Víctor Hugo Reynoso (d) à rattacher Cynosphenodon à la famille des Sphenodontidae,. Il est considéré comme carnivore à omnivore.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cynosphenodon du grec « cynos » (chien) pour la ressemblance de ses dents avec celles des canidés[1], et sphénodonte : « sphénodonte-chien ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cynosphenodon du grec « cynos » (chien) pour la ressemblance de ses dents avec celles des canidés, et sphénodonte : « sphénodonte-chien ».
 </t>
         </is>
       </c>
@@ -606,11 +624,48 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Position phylogénétique de Cynosphenodon au sein des Sphenodontidae en 2014[4] :
-Cladogramme dans Rhynchocephalia
-Ci dessous, le cladogramme des Rhynchocephalia, selon Wu, 1994[5] Evans, Prasad &amp; Manhas 2001[6] et Apesteguia &amp; Novas, 2003[7] dans Mikko's Phylogeny Archive[8].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Position phylogénétique de Cynosphenodon au sein des Sphenodontidae en 2014 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cynosphenodon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cynosphenodon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Position phylogénétique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cladogramme dans Rhynchocephalia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci dessous, le cladogramme des Rhynchocephalia, selon Wu, 1994 Evans, Prasad &amp; Manhas 2001 et Apesteguia &amp; Novas, 2003 dans Mikko's Phylogeny Archive.
 </t>
         </is>
       </c>
